--- a/Assets/06.Table/Title_Weapon.xlsx
+++ b/Assets/06.Table/Title_Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A0F792-CD90-471E-A596-3EDFB3C217E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395CCC00-81DC-4943-98F3-EADDD62C3795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Weapon" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -558,6 +558,12 @@
   </si>
   <si>
     <t>title64</t>
+  </si>
+  <si>
+    <t>title65</t>
+  </si>
+  <si>
+    <t>title66</t>
   </si>
 </sst>
 </file>
@@ -2063,6 +2069,28 @@
           </cell>
           <cell r="C128" t="str">
             <v>귀왕의 검</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="A129">
+            <v>127</v>
+          </cell>
+          <cell r="B129" t="str">
+            <v>weapon127</v>
+          </cell>
+          <cell r="C129" t="str">
+            <v>만독귀의의 검</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130">
+            <v>128</v>
+          </cell>
+          <cell r="B130" t="str">
+            <v>weapon128</v>
+          </cell>
+          <cell r="C130" t="str">
+            <v>사령신군의 검</v>
           </cell>
         </row>
       </sheetData>
@@ -2370,11 +2398,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O66"/>
+  <dimension ref="A1:O68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
+      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5557,6 +5585,104 @@
       </c>
       <c r="O66">
         <v>739</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" ref="C67:C68" si="6">M67&amp;" 획득"</f>
+        <v>만독귀의의 검 획득</v>
+      </c>
+      <c r="D67" s="1">
+        <v>127</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <v>46</v>
+      </c>
+      <c r="G67">
+        <v>190000</v>
+      </c>
+      <c r="H67">
+        <v>27</v>
+      </c>
+      <c r="I67">
+        <v>20400</v>
+      </c>
+      <c r="J67">
+        <v>10</v>
+      </c>
+      <c r="K67" s="1">
+        <v>0</v>
+      </c>
+      <c r="L67" t="b">
+        <v>1</v>
+      </c>
+      <c r="M67" t="str">
+        <f>VLOOKUP(D67,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>만독귀의의 검</v>
+      </c>
+      <c r="N67">
+        <v>11</v>
+      </c>
+      <c r="O67">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="6"/>
+        <v>사령신군의 검 획득</v>
+      </c>
+      <c r="D68" s="1">
+        <v>128</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>46</v>
+      </c>
+      <c r="G68">
+        <v>193000</v>
+      </c>
+      <c r="H68">
+        <v>27</v>
+      </c>
+      <c r="I68">
+        <v>20800</v>
+      </c>
+      <c r="J68">
+        <v>10</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0</v>
+      </c>
+      <c r="L68" t="b">
+        <v>1</v>
+      </c>
+      <c r="M68" t="str">
+        <f>VLOOKUP(D68,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>사령신군의 검</v>
+      </c>
+      <c r="N68">
+        <v>11</v>
+      </c>
+      <c r="O68">
+        <v>741</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Weapon.xlsx
+++ b/Assets/06.Table/Title_Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395CCC00-81DC-4943-98F3-EADDD62C3795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2484ED32-60CA-4AD9-B50F-A17DFFF692AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28830" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Weapon" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -564,6 +564,12 @@
   </si>
   <si>
     <t>title66</t>
+  </si>
+  <si>
+    <t>title67</t>
+  </si>
+  <si>
+    <t>title68</t>
   </si>
 </sst>
 </file>
@@ -658,8 +664,9 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Weapon"/>
+      <sheetName val="TransBalance"/>
+      <sheetName val="Sheet1"/>
       <sheetName val="Prob"/>
-      <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -2093,9 +2100,43 @@
             <v>사령신군의 검</v>
           </cell>
         </row>
+        <row r="131">
+          <cell r="A131">
+            <v>129</v>
+          </cell>
+          <cell r="B131" t="str">
+            <v>weapon129</v>
+          </cell>
+          <cell r="C131" t="str">
+            <v>동악신로의 검</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="A132">
+            <v>130</v>
+          </cell>
+          <cell r="B132" t="str">
+            <v>weapon130</v>
+          </cell>
+          <cell r="C132" t="str">
+            <v>음명진군의 검</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="A133">
+            <v>131</v>
+          </cell>
+          <cell r="B133" t="str">
+            <v>weapon131</v>
+          </cell>
+          <cell r="C133" t="str">
+            <v>2주년 무기</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2398,11 +2439,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O68"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
+      <selection pane="bottomLeft" activeCell="M69" sqref="M69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5683,6 +5724,104 @@
       </c>
       <c r="O68">
         <v>741</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" ref="C69:C70" si="7">M69&amp;" 획득"</f>
+        <v>동악신로의 검 획득</v>
+      </c>
+      <c r="D69" s="1">
+        <v>129</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <v>46</v>
+      </c>
+      <c r="G69">
+        <v>196000</v>
+      </c>
+      <c r="H69">
+        <v>27</v>
+      </c>
+      <c r="I69">
+        <v>21200</v>
+      </c>
+      <c r="J69">
+        <v>10</v>
+      </c>
+      <c r="K69" s="1">
+        <v>0</v>
+      </c>
+      <c r="L69" t="b">
+        <v>1</v>
+      </c>
+      <c r="M69" t="str">
+        <f>VLOOKUP(D69,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>동악신로의 검</v>
+      </c>
+      <c r="N69">
+        <v>11</v>
+      </c>
+      <c r="O69">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="7"/>
+        <v>음명진군의 검 획득</v>
+      </c>
+      <c r="D70" s="1">
+        <v>130</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>46</v>
+      </c>
+      <c r="G70">
+        <v>199000</v>
+      </c>
+      <c r="H70">
+        <v>27</v>
+      </c>
+      <c r="I70">
+        <v>21600</v>
+      </c>
+      <c r="J70">
+        <v>10</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0</v>
+      </c>
+      <c r="L70" t="b">
+        <v>1</v>
+      </c>
+      <c r="M70" t="str">
+        <f>VLOOKUP(D70,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>음명진군의 검</v>
+      </c>
+      <c r="N70">
+        <v>11</v>
+      </c>
+      <c r="O70">
+        <v>743</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Weapon.xlsx
+++ b/Assets/06.Table/Title_Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2484ED32-60CA-4AD9-B50F-A17DFFF692AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C578C8-CAF3-49B4-BF7E-AE4EB4D9CD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28830" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Weapon" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -570,6 +570,12 @@
   </si>
   <si>
     <t>title68</t>
+  </si>
+  <si>
+    <t>title69</t>
+  </si>
+  <si>
+    <t>title70</t>
   </si>
 </sst>
 </file>
@@ -2131,6 +2137,28 @@
           </cell>
           <cell r="C133" t="str">
             <v>2주년 무기</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="A134">
+            <v>132</v>
+          </cell>
+          <cell r="B134" t="str">
+            <v>weapon132</v>
+          </cell>
+          <cell r="C134" t="str">
+            <v>천귀사신의 검</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="A135">
+            <v>133</v>
+          </cell>
+          <cell r="B135" t="str">
+            <v>weapon133</v>
+          </cell>
+          <cell r="C135" t="str">
+            <v>마영독군의 낫</v>
           </cell>
         </row>
       </sheetData>
@@ -2439,11 +2467,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O70"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M69" sqref="M69"/>
+      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5822,6 +5850,104 @@
       </c>
       <c r="O70">
         <v>743</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" ref="C71:C72" si="8">M71&amp;" 획득"</f>
+        <v>천귀사신의 검 획득</v>
+      </c>
+      <c r="D71" s="1">
+        <v>132</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>46</v>
+      </c>
+      <c r="G71">
+        <v>202000</v>
+      </c>
+      <c r="H71">
+        <v>27</v>
+      </c>
+      <c r="I71">
+        <v>22000</v>
+      </c>
+      <c r="J71">
+        <v>10</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0</v>
+      </c>
+      <c r="L71" t="b">
+        <v>1</v>
+      </c>
+      <c r="M71" t="str">
+        <f>VLOOKUP(D71,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>천귀사신의 검</v>
+      </c>
+      <c r="N71">
+        <v>11</v>
+      </c>
+      <c r="O71">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="8"/>
+        <v>마영독군의 낫 획득</v>
+      </c>
+      <c r="D72" s="1">
+        <v>133</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>46</v>
+      </c>
+      <c r="G72">
+        <v>205000</v>
+      </c>
+      <c r="H72">
+        <v>27</v>
+      </c>
+      <c r="I72">
+        <v>22400</v>
+      </c>
+      <c r="J72">
+        <v>10</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0</v>
+      </c>
+      <c r="L72" t="b">
+        <v>1</v>
+      </c>
+      <c r="M72" t="str">
+        <f>VLOOKUP(D72,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>마영독군의 낫</v>
+      </c>
+      <c r="N72">
+        <v>11</v>
+      </c>
+      <c r="O72">
+        <v>745</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Weapon.xlsx
+++ b/Assets/06.Table/Title_Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C578C8-CAF3-49B4-BF7E-AE4EB4D9CD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7891B1AA-F3B0-4007-86DE-70477DC38CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -576,6 +576,9 @@
   </si>
   <si>
     <t>title70</t>
+  </si>
+  <si>
+    <t>title71</t>
   </si>
 </sst>
 </file>
@@ -2159,6 +2162,17 @@
           </cell>
           <cell r="C135" t="str">
             <v>마영독군의 낫</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="A136">
+            <v>134</v>
+          </cell>
+          <cell r="B136" t="str">
+            <v>weapon134</v>
+          </cell>
+          <cell r="C136" t="str">
+            <v>독왕의 검</v>
           </cell>
         </row>
       </sheetData>
@@ -2467,11 +2481,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O72"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5948,6 +5962,55 @@
       </c>
       <c r="O72">
         <v>745</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" ref="C73" si="9">M73&amp;" 획득"</f>
+        <v>독왕의 검 획득</v>
+      </c>
+      <c r="D73" s="1">
+        <v>134</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>46</v>
+      </c>
+      <c r="G73">
+        <v>208000</v>
+      </c>
+      <c r="H73">
+        <v>27</v>
+      </c>
+      <c r="I73">
+        <v>22800</v>
+      </c>
+      <c r="J73">
+        <v>10</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0</v>
+      </c>
+      <c r="L73" t="b">
+        <v>1</v>
+      </c>
+      <c r="M73" t="str">
+        <f>VLOOKUP(D73,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>독왕의 검</v>
+      </c>
+      <c r="N73">
+        <v>11</v>
+      </c>
+      <c r="O73">
+        <v>746</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Weapon.xlsx
+++ b/Assets/06.Table/Title_Weapon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7891B1AA-F3B0-4007-86DE-70477DC38CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84332749-4790-46ED-8EBB-6731260A2A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -579,6 +579,12 @@
   </si>
   <si>
     <t>title71</t>
+  </si>
+  <si>
+    <t>title72</t>
+  </si>
+  <si>
+    <t>title73</t>
   </si>
 </sst>
 </file>
@@ -2173,6 +2179,28 @@
           </cell>
           <cell r="C136" t="str">
             <v>독왕의 검</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="A137">
+            <v>135</v>
+          </cell>
+          <cell r="B137" t="str">
+            <v>weapon135</v>
+          </cell>
+          <cell r="C137" t="str">
+            <v>백수뇌군의 검</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="A138">
+            <v>136</v>
+          </cell>
+          <cell r="B138" t="str">
+            <v>weapon136</v>
+          </cell>
+          <cell r="C138" t="str">
+            <v>뇌제의 검</v>
           </cell>
         </row>
       </sheetData>
@@ -2481,11 +2509,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
+      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5972,7 +6000,7 @@
         <v>151</v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" ref="C73" si="9">M73&amp;" 획득"</f>
+        <f t="shared" ref="C73:C74" si="9">M73&amp;" 획득"</f>
         <v>독왕의 검 획득</v>
       </c>
       <c r="D73" s="1">
@@ -6011,6 +6039,104 @@
       </c>
       <c r="O73">
         <v>746</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="9"/>
+        <v>백수뇌군의 검 획득</v>
+      </c>
+      <c r="D74" s="1">
+        <v>135</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>46</v>
+      </c>
+      <c r="G74">
+        <v>211000</v>
+      </c>
+      <c r="H74">
+        <v>27</v>
+      </c>
+      <c r="I74">
+        <v>23200</v>
+      </c>
+      <c r="J74">
+        <v>10</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0</v>
+      </c>
+      <c r="L74" t="b">
+        <v>1</v>
+      </c>
+      <c r="M74" t="str">
+        <f>VLOOKUP(D74,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>백수뇌군의 검</v>
+      </c>
+      <c r="N74">
+        <v>11</v>
+      </c>
+      <c r="O74">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" ref="C75" si="10">M75&amp;" 획득"</f>
+        <v>뇌제의 검 획득</v>
+      </c>
+      <c r="D75" s="1">
+        <v>136</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>46</v>
+      </c>
+      <c r="G75">
+        <v>214000</v>
+      </c>
+      <c r="H75">
+        <v>27</v>
+      </c>
+      <c r="I75">
+        <v>23600</v>
+      </c>
+      <c r="J75">
+        <v>10</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0</v>
+      </c>
+      <c r="L75" t="b">
+        <v>1</v>
+      </c>
+      <c r="M75" t="str">
+        <f>VLOOKUP(D75,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>뇌제의 검</v>
+      </c>
+      <c r="N75">
+        <v>11</v>
+      </c>
+      <c r="O75">
+        <v>748</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Weapon.xlsx
+++ b/Assets/06.Table/Title_Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84332749-4790-46ED-8EBB-6731260A2A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70219DBE-407A-4653-98FB-B0D7209683DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Weapon" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -585,6 +585,9 @@
   </si>
   <si>
     <t>title73</t>
+  </si>
+  <si>
+    <t>title74</t>
   </si>
 </sst>
 </file>
@@ -2201,6 +2204,17 @@
           </cell>
           <cell r="C138" t="str">
             <v>뇌제의 검</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="A139">
+            <v>137</v>
+          </cell>
+          <cell r="B139" t="str">
+            <v>weapon137</v>
+          </cell>
+          <cell r="C139" t="str">
+            <v>흑묘살수의 검</v>
           </cell>
         </row>
       </sheetData>
@@ -2509,11 +2523,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6000,7 +6014,7 @@
         <v>151</v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" ref="C73:C74" si="9">M73&amp;" 획득"</f>
+        <f t="shared" ref="C73:C76" si="9">M73&amp;" 획득"</f>
         <v>독왕의 검 획득</v>
       </c>
       <c r="D73" s="1">
@@ -6098,7 +6112,7 @@
         <v>153</v>
       </c>
       <c r="C75" t="str">
-        <f t="shared" ref="C75" si="10">M75&amp;" 획득"</f>
+        <f t="shared" ref="C75:C76" si="10">M75&amp;" 획득"</f>
         <v>뇌제의 검 획득</v>
       </c>
       <c r="D75" s="1">
@@ -6137,6 +6151,55 @@
       </c>
       <c r="O75">
         <v>748</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="10"/>
+        <v>흑묘살수의 검 획득</v>
+      </c>
+      <c r="D76" s="1">
+        <v>137</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>46</v>
+      </c>
+      <c r="G76">
+        <v>217000</v>
+      </c>
+      <c r="H76">
+        <v>27</v>
+      </c>
+      <c r="I76">
+        <v>24000</v>
+      </c>
+      <c r="J76">
+        <v>10</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0</v>
+      </c>
+      <c r="L76" t="b">
+        <v>1</v>
+      </c>
+      <c r="M76" t="str">
+        <f>VLOOKUP(D76,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>흑묘살수의 검</v>
+      </c>
+      <c r="N76">
+        <v>11</v>
+      </c>
+      <c r="O76">
+        <v>749</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Weapon.xlsx
+++ b/Assets/06.Table/Title_Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70219DBE-407A-4653-98FB-B0D7209683DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F974A9-7D5F-4C60-9892-516BF40B4E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Weapon" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -588,6 +588,9 @@
   </si>
   <si>
     <t>title74</t>
+  </si>
+  <si>
+    <t>title75</t>
   </si>
 </sst>
 </file>
@@ -2215,6 +2218,17 @@
           </cell>
           <cell r="C139" t="str">
             <v>흑묘살수의 검</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="A140">
+            <v>138</v>
+          </cell>
+          <cell r="B140" t="str">
+            <v>weapon138</v>
+          </cell>
+          <cell r="C140" t="str">
+            <v>삼천왕의 검</v>
           </cell>
         </row>
       </sheetData>
@@ -2523,11 +2537,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
+      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6014,7 +6028,7 @@
         <v>151</v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" ref="C73:C76" si="9">M73&amp;" 획득"</f>
+        <f t="shared" ref="C73:C74" si="9">M73&amp;" 획득"</f>
         <v>독왕의 검 획득</v>
       </c>
       <c r="D73" s="1">
@@ -6200,6 +6214,55 @@
       </c>
       <c r="O76">
         <v>749</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" ref="C77" si="11">M77&amp;" 획득"</f>
+        <v>삼천왕의 검 획득</v>
+      </c>
+      <c r="D77" s="1">
+        <v>138</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>46</v>
+      </c>
+      <c r="G77">
+        <v>220000</v>
+      </c>
+      <c r="H77">
+        <v>27</v>
+      </c>
+      <c r="I77">
+        <v>24400</v>
+      </c>
+      <c r="J77">
+        <v>10</v>
+      </c>
+      <c r="K77" s="1">
+        <v>0</v>
+      </c>
+      <c r="L77" t="b">
+        <v>1</v>
+      </c>
+      <c r="M77" t="str">
+        <f>VLOOKUP(D77,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>삼천왕의 검</v>
+      </c>
+      <c r="N77">
+        <v>11</v>
+      </c>
+      <c r="O77">
+        <v>750</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Weapon.xlsx
+++ b/Assets/06.Table/Title_Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F974A9-7D5F-4C60-9892-516BF40B4E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDD7A81-DEDA-4736-A8E7-F9A8A1E24E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Weapon" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -591,6 +591,9 @@
   </si>
   <si>
     <t>title75</t>
+  </si>
+  <si>
+    <t>title76</t>
   </si>
 </sst>
 </file>
@@ -2229,6 +2232,17 @@
           </cell>
           <cell r="C140" t="str">
             <v>삼천왕의 검</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="A141">
+            <v>139</v>
+          </cell>
+          <cell r="B141" t="str">
+            <v>weapon139</v>
+          </cell>
+          <cell r="C141" t="str">
+            <v>장군의 검</v>
           </cell>
         </row>
       </sheetData>
@@ -2537,11 +2551,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6224,7 +6238,7 @@
         <v>155</v>
       </c>
       <c r="C77" t="str">
-        <f t="shared" ref="C77" si="11">M77&amp;" 획득"</f>
+        <f t="shared" ref="C77:C78" si="11">M77&amp;" 획득"</f>
         <v>삼천왕의 검 획득</v>
       </c>
       <c r="D77" s="1">
@@ -6263,6 +6277,55 @@
       </c>
       <c r="O77">
         <v>750</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="11"/>
+        <v>장군의 검 획득</v>
+      </c>
+      <c r="D78" s="1">
+        <v>139</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>46</v>
+      </c>
+      <c r="G78">
+        <v>223000</v>
+      </c>
+      <c r="H78">
+        <v>27</v>
+      </c>
+      <c r="I78">
+        <v>24800</v>
+      </c>
+      <c r="J78">
+        <v>10</v>
+      </c>
+      <c r="K78" s="1">
+        <v>0</v>
+      </c>
+      <c r="L78" t="b">
+        <v>1</v>
+      </c>
+      <c r="M78" t="str">
+        <f>VLOOKUP(D78,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>장군의 검</v>
+      </c>
+      <c r="N78">
+        <v>11</v>
+      </c>
+      <c r="O78">
+        <v>751</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Weapon.xlsx
+++ b/Assets/06.Table/Title_Weapon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDD7A81-DEDA-4736-A8E7-F9A8A1E24E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354AD01C-BBA7-43DB-82FE-AAB717A48A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Weapon" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -594,6 +594,9 @@
   </si>
   <si>
     <t>title76</t>
+  </si>
+  <si>
+    <t>title77</t>
   </si>
 </sst>
 </file>
@@ -2242,7 +2245,18 @@
             <v>weapon139</v>
           </cell>
           <cell r="C141" t="str">
-            <v>장군의 검</v>
+            <v>용자매의 검</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="A142">
+            <v>140</v>
+          </cell>
+          <cell r="B142" t="str">
+            <v>weapon140</v>
+          </cell>
+          <cell r="C142" t="str">
+            <v>용술사의 검</v>
           </cell>
         </row>
       </sheetData>
@@ -2551,11 +2565,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O78"/>
+  <dimension ref="A1:O79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H80" sqref="H80"/>
+      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6238,7 +6252,7 @@
         <v>155</v>
       </c>
       <c r="C77" t="str">
-        <f t="shared" ref="C77:C78" si="11">M77&amp;" 획득"</f>
+        <f t="shared" ref="C77:C79" si="11">M77&amp;" 획득"</f>
         <v>삼천왕의 검 획득</v>
       </c>
       <c r="D77" s="1">
@@ -6326,6 +6340,55 @@
       </c>
       <c r="O78">
         <v>751</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="11"/>
+        <v>용술사의 검 획득</v>
+      </c>
+      <c r="D79" s="1">
+        <v>140</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>46</v>
+      </c>
+      <c r="G79">
+        <v>226000</v>
+      </c>
+      <c r="H79">
+        <v>27</v>
+      </c>
+      <c r="I79">
+        <v>25200</v>
+      </c>
+      <c r="J79">
+        <v>10</v>
+      </c>
+      <c r="K79" s="1">
+        <v>0</v>
+      </c>
+      <c r="L79" t="b">
+        <v>1</v>
+      </c>
+      <c r="M79" t="str">
+        <f>VLOOKUP(D79,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>용술사의 검</v>
+      </c>
+      <c r="N79">
+        <v>11</v>
+      </c>
+      <c r="O79">
+        <v>752</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Weapon.xlsx
+++ b/Assets/06.Table/Title_Weapon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354AD01C-BBA7-43DB-82FE-AAB717A48A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CCB30A-ED39-4157-8FA4-4F63B60A2BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -597,6 +597,9 @@
   </si>
   <si>
     <t>title77</t>
+  </si>
+  <si>
+    <t>title78</t>
   </si>
 </sst>
 </file>
@@ -2257,6 +2260,17 @@
           </cell>
           <cell r="C142" t="str">
             <v>용술사의 검</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="A143">
+            <v>141</v>
+          </cell>
+          <cell r="B143" t="str">
+            <v>weapon141</v>
+          </cell>
+          <cell r="C143" t="str">
+            <v>용무제의 검</v>
           </cell>
         </row>
       </sheetData>
@@ -2565,11 +2579,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O79"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
+      <selection pane="bottomLeft" activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6252,7 +6266,7 @@
         <v>155</v>
       </c>
       <c r="C77" t="str">
-        <f t="shared" ref="C77:C79" si="11">M77&amp;" 획득"</f>
+        <f t="shared" ref="C77:C80" si="11">M77&amp;" 획득"</f>
         <v>삼천왕의 검 획득</v>
       </c>
       <c r="D77" s="1">
@@ -6389,6 +6403,55 @@
       </c>
       <c r="O79">
         <v>752</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="11"/>
+        <v>용무제의 검 획득</v>
+      </c>
+      <c r="D80" s="1">
+        <v>141</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>46</v>
+      </c>
+      <c r="G80">
+        <v>229000</v>
+      </c>
+      <c r="H80">
+        <v>27</v>
+      </c>
+      <c r="I80">
+        <v>25600</v>
+      </c>
+      <c r="J80">
+        <v>10</v>
+      </c>
+      <c r="K80" s="1">
+        <v>0</v>
+      </c>
+      <c r="L80" t="b">
+        <v>1</v>
+      </c>
+      <c r="M80" t="str">
+        <f>VLOOKUP(D80,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>용무제의 검</v>
+      </c>
+      <c r="N80">
+        <v>11</v>
+      </c>
+      <c r="O80">
+        <v>753</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Weapon.xlsx
+++ b/Assets/06.Table/Title_Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CCB30A-ED39-4157-8FA4-4F63B60A2BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02B88EB-06FE-4A3B-B75E-F02F94CBB075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Weapon" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -600,6 +600,18 @@
   </si>
   <si>
     <t>title78</t>
+  </si>
+  <si>
+    <t>title79</t>
+  </si>
+  <si>
+    <t>title80</t>
+  </si>
+  <si>
+    <t>title81</t>
+  </si>
+  <si>
+    <t>title82</t>
   </si>
 </sst>
 </file>
@@ -2271,6 +2283,61 @@
           </cell>
           <cell r="C143" t="str">
             <v>용무제의 검</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="A144">
+            <v>142</v>
+          </cell>
+          <cell r="B144" t="str">
+            <v>weapon142</v>
+          </cell>
+          <cell r="C144" t="str">
+            <v>흑룡신의 좌검</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="A145">
+            <v>143</v>
+          </cell>
+          <cell r="B145" t="str">
+            <v>weapon143</v>
+          </cell>
+          <cell r="C145" t="str">
+            <v>흑룡신의 우검</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="A146">
+            <v>144</v>
+          </cell>
+          <cell r="B146" t="str">
+            <v>weapon144</v>
+          </cell>
+          <cell r="C146" t="str">
+            <v>적룡신의 좌검</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="A147">
+            <v>145</v>
+          </cell>
+          <cell r="B147" t="str">
+            <v>weapon145</v>
+          </cell>
+          <cell r="C147" t="str">
+            <v>적룡신의 우검</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="A148">
+            <v>146</v>
+          </cell>
+          <cell r="B148" t="str">
+            <v>weapon146</v>
+          </cell>
+          <cell r="C148" t="str">
+            <v>싸움왕의 검</v>
           </cell>
         </row>
       </sheetData>
@@ -2579,11 +2646,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O80"/>
+  <dimension ref="A1:O84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J75" sqref="J75"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6266,7 +6333,7 @@
         <v>155</v>
       </c>
       <c r="C77" t="str">
-        <f t="shared" ref="C77:C80" si="11">M77&amp;" 획득"</f>
+        <f t="shared" ref="C77:C81" si="11">M77&amp;" 획득"</f>
         <v>삼천왕의 검 획득</v>
       </c>
       <c r="D77" s="1">
@@ -6316,7 +6383,7 @@
       </c>
       <c r="C78" t="str">
         <f t="shared" si="11"/>
-        <v>장군의 검 획득</v>
+        <v>용자매의 검 획득</v>
       </c>
       <c r="D78" s="1">
         <v>139</v>
@@ -6347,7 +6414,7 @@
       </c>
       <c r="M78" t="str">
         <f>VLOOKUP(D78,[1]Weapon!$A:$C,3,FALSE)</f>
-        <v>장군의 검</v>
+        <v>용자매의 검</v>
       </c>
       <c r="N78">
         <v>11</v>
@@ -6452,6 +6519,202 @@
       </c>
       <c r="O80">
         <v>753</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="11"/>
+        <v>흑룡신의 좌검 획득</v>
+      </c>
+      <c r="D81" s="1">
+        <v>142</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>46</v>
+      </c>
+      <c r="G81">
+        <v>232000</v>
+      </c>
+      <c r="H81">
+        <v>27</v>
+      </c>
+      <c r="I81">
+        <v>26000</v>
+      </c>
+      <c r="J81">
+        <v>10</v>
+      </c>
+      <c r="K81" s="1">
+        <v>0</v>
+      </c>
+      <c r="L81" t="b">
+        <v>1</v>
+      </c>
+      <c r="M81" t="str">
+        <f>VLOOKUP(D81,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>흑룡신의 좌검</v>
+      </c>
+      <c r="N81">
+        <v>11</v>
+      </c>
+      <c r="O81">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" ref="C82:C84" si="12">M82&amp;" 획득"</f>
+        <v>흑룡신의 우검 획득</v>
+      </c>
+      <c r="D82" s="1">
+        <v>143</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="F82">
+        <v>46</v>
+      </c>
+      <c r="G82">
+        <v>235000</v>
+      </c>
+      <c r="H82">
+        <v>27</v>
+      </c>
+      <c r="I82">
+        <v>26400</v>
+      </c>
+      <c r="J82">
+        <v>10</v>
+      </c>
+      <c r="K82" s="1">
+        <v>0</v>
+      </c>
+      <c r="L82" t="b">
+        <v>1</v>
+      </c>
+      <c r="M82" t="str">
+        <f>VLOOKUP(D82,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>흑룡신의 우검</v>
+      </c>
+      <c r="N82">
+        <v>11</v>
+      </c>
+      <c r="O82">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="12"/>
+        <v>적룡신의 좌검 획득</v>
+      </c>
+      <c r="D83" s="1">
+        <v>144</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <v>46</v>
+      </c>
+      <c r="G83">
+        <v>238000</v>
+      </c>
+      <c r="H83">
+        <v>27</v>
+      </c>
+      <c r="I83">
+        <v>26800</v>
+      </c>
+      <c r="J83">
+        <v>10</v>
+      </c>
+      <c r="K83" s="1">
+        <v>0</v>
+      </c>
+      <c r="L83" t="b">
+        <v>1</v>
+      </c>
+      <c r="M83" t="str">
+        <f>VLOOKUP(D83,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>적룡신의 좌검</v>
+      </c>
+      <c r="N83">
+        <v>11</v>
+      </c>
+      <c r="O83">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="12"/>
+        <v>적룡신의 우검 획득</v>
+      </c>
+      <c r="D84" s="1">
+        <v>145</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>46</v>
+      </c>
+      <c r="G84">
+        <v>241000</v>
+      </c>
+      <c r="H84">
+        <v>27</v>
+      </c>
+      <c r="I84">
+        <v>27200</v>
+      </c>
+      <c r="J84">
+        <v>10</v>
+      </c>
+      <c r="K84" s="1">
+        <v>0</v>
+      </c>
+      <c r="L84" t="b">
+        <v>1</v>
+      </c>
+      <c r="M84" t="str">
+        <f>VLOOKUP(D84,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>적룡신의 우검</v>
+      </c>
+      <c r="N84">
+        <v>11</v>
+      </c>
+      <c r="O84">
+        <v>757</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Weapon.xlsx
+++ b/Assets/06.Table/Title_Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02B88EB-06FE-4A3B-B75E-F02F94CBB075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC1A8C3-329D-4D6A-B81E-7947BB71899F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -612,6 +612,12 @@
   </si>
   <si>
     <t>title82</t>
+  </si>
+  <si>
+    <t>title83</t>
+  </si>
+  <si>
+    <t>title84</t>
   </si>
 </sst>
 </file>
@@ -2338,6 +2344,39 @@
           </cell>
           <cell r="C148" t="str">
             <v>싸움왕의 검</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="A149">
+            <v>147</v>
+          </cell>
+          <cell r="B149" t="str">
+            <v>weapon147</v>
+          </cell>
+          <cell r="C149" t="str">
+            <v>흑해태자의 검</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="A150">
+            <v>148</v>
+          </cell>
+          <cell r="B150" t="str">
+            <v>weapon148</v>
+          </cell>
+          <cell r="C150" t="str">
+            <v>광해태자의 검</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="A151">
+            <v>149</v>
+          </cell>
+          <cell r="B151" t="str">
+            <v>weapon149</v>
+          </cell>
+          <cell r="C151" t="str">
+            <v>무기22</v>
           </cell>
         </row>
       </sheetData>
@@ -2646,11 +2685,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O84"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6715,6 +6754,104 @@
       </c>
       <c r="O84">
         <v>757</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" ref="C85:C86" si="13">M85&amp;" 획득"</f>
+        <v>흑해태자의 검 획득</v>
+      </c>
+      <c r="D85" s="1">
+        <v>147</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>46</v>
+      </c>
+      <c r="G85">
+        <v>244000</v>
+      </c>
+      <c r="H85">
+        <v>27</v>
+      </c>
+      <c r="I85">
+        <v>27600</v>
+      </c>
+      <c r="J85">
+        <v>10</v>
+      </c>
+      <c r="K85" s="1">
+        <v>0</v>
+      </c>
+      <c r="L85" t="b">
+        <v>1</v>
+      </c>
+      <c r="M85" t="str">
+        <f>VLOOKUP(D85,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>흑해태자의 검</v>
+      </c>
+      <c r="N85">
+        <v>11</v>
+      </c>
+      <c r="O85">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="13"/>
+        <v>광해태자의 검 획득</v>
+      </c>
+      <c r="D86" s="1">
+        <v>148</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <v>46</v>
+      </c>
+      <c r="G86">
+        <v>247000</v>
+      </c>
+      <c r="H86">
+        <v>27</v>
+      </c>
+      <c r="I86">
+        <v>28000</v>
+      </c>
+      <c r="J86">
+        <v>10</v>
+      </c>
+      <c r="K86" s="1">
+        <v>0</v>
+      </c>
+      <c r="L86" t="b">
+        <v>1</v>
+      </c>
+      <c r="M86" t="str">
+        <f>VLOOKUP(D86,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>광해태자의 검</v>
+      </c>
+      <c r="N86">
+        <v>11</v>
+      </c>
+      <c r="O86">
+        <v>759</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Weapon.xlsx
+++ b/Assets/06.Table/Title_Weapon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC1A8C3-329D-4D6A-B81E-7947BB71899F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6FA8AC-6FE8-49E1-85B5-AF551E7C76BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -618,6 +618,12 @@
   </si>
   <si>
     <t>title84</t>
+  </si>
+  <si>
+    <t>title85</t>
+  </si>
+  <si>
+    <t>title86</t>
   </si>
 </sst>
 </file>
@@ -2354,7 +2360,7 @@
             <v>weapon147</v>
           </cell>
           <cell r="C149" t="str">
-            <v>흑해태자의 검</v>
+            <v>흑해태자의 부채</v>
           </cell>
         </row>
         <row r="150">
@@ -2376,7 +2382,29 @@
             <v>weapon149</v>
           </cell>
           <cell r="C151" t="str">
-            <v>무기22</v>
+            <v>크리스마스 트리</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="A152">
+            <v>150</v>
+          </cell>
+          <cell r="B152" t="str">
+            <v>weapon150</v>
+          </cell>
+          <cell r="C152" t="str">
+            <v>여울태자의 검</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="A153">
+            <v>151</v>
+          </cell>
+          <cell r="B153" t="str">
+            <v>weapon151</v>
+          </cell>
+          <cell r="C153" t="str">
+            <v>가람태자의 검</v>
           </cell>
         </row>
       </sheetData>
@@ -2685,11 +2713,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O86"/>
+  <dimension ref="A1:O88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6764,8 +6792,8 @@
         <v>163</v>
       </c>
       <c r="C85" t="str">
-        <f t="shared" ref="C85:C86" si="13">M85&amp;" 획득"</f>
-        <v>흑해태자의 검 획득</v>
+        <f t="shared" ref="C85:C87" si="13">M85&amp;" 획득"</f>
+        <v>흑해태자의 부채 획득</v>
       </c>
       <c r="D85" s="1">
         <v>147</v>
@@ -6796,7 +6824,7 @@
       </c>
       <c r="M85" t="str">
         <f>VLOOKUP(D85,[1]Weapon!$A:$C,3,FALSE)</f>
-        <v>흑해태자의 검</v>
+        <v>흑해태자의 부채</v>
       </c>
       <c r="N85">
         <v>11</v>
@@ -6852,6 +6880,104 @@
       </c>
       <c r="O86">
         <v>759</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="13"/>
+        <v>여울태자의 검 획득</v>
+      </c>
+      <c r="D87" s="1">
+        <v>150</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87">
+        <v>46</v>
+      </c>
+      <c r="G87">
+        <v>250000</v>
+      </c>
+      <c r="H87">
+        <v>27</v>
+      </c>
+      <c r="I87">
+        <v>28400</v>
+      </c>
+      <c r="J87">
+        <v>10</v>
+      </c>
+      <c r="K87" s="1">
+        <v>0</v>
+      </c>
+      <c r="L87" t="b">
+        <v>1</v>
+      </c>
+      <c r="M87" t="str">
+        <f>VLOOKUP(D87,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>여울태자의 검</v>
+      </c>
+      <c r="N87">
+        <v>11</v>
+      </c>
+      <c r="O87">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" ref="C88" si="14">M88&amp;" 획득"</f>
+        <v>가람태자의 검 획득</v>
+      </c>
+      <c r="D88" s="1">
+        <v>151</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88">
+        <v>46</v>
+      </c>
+      <c r="G88">
+        <v>253000</v>
+      </c>
+      <c r="H88">
+        <v>27</v>
+      </c>
+      <c r="I88">
+        <v>28800</v>
+      </c>
+      <c r="J88">
+        <v>10</v>
+      </c>
+      <c r="K88" s="1">
+        <v>0</v>
+      </c>
+      <c r="L88" t="b">
+        <v>1</v>
+      </c>
+      <c r="M88" t="str">
+        <f>VLOOKUP(D88,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>가람태자의 검</v>
+      </c>
+      <c r="N88">
+        <v>11</v>
+      </c>
+      <c r="O88">
+        <v>761</v>
       </c>
     </row>
   </sheetData>
@@ -6867,8 +6993,8 @@
   <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/Title_Weapon.xlsx
+++ b/Assets/06.Table/Title_Weapon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6FA8AC-6FE8-49E1-85B5-AF551E7C76BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B866901D-19CB-4491-B9E2-777D4E7FD805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Weapon" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -624,6 +624,12 @@
   </si>
   <si>
     <t>title86</t>
+  </si>
+  <si>
+    <t>title87</t>
+  </si>
+  <si>
+    <t>title88</t>
   </si>
 </sst>
 </file>
@@ -2405,6 +2411,39 @@
           </cell>
           <cell r="C153" t="str">
             <v>가람태자의 검</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="A154">
+            <v>152</v>
+          </cell>
+          <cell r="B154" t="str">
+            <v>weapon152</v>
+          </cell>
+          <cell r="C154" t="str">
+            <v>서해장군의 검</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="A155">
+            <v>153</v>
+          </cell>
+          <cell r="B155" t="str">
+            <v>weapon153</v>
+          </cell>
+          <cell r="C155" t="str">
+            <v>동해장군의 검</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="A156">
+            <v>154</v>
+          </cell>
+          <cell r="B156" t="str">
+            <v>weapon154</v>
+          </cell>
+          <cell r="C156" t="str">
+            <v>비무신의 검</v>
           </cell>
         </row>
       </sheetData>
@@ -2713,11 +2752,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O88"/>
+  <dimension ref="A1:O90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
+      <selection pane="bottomLeft" activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6939,7 +6978,7 @@
         <v>166</v>
       </c>
       <c r="C88" t="str">
-        <f t="shared" ref="C88" si="14">M88&amp;" 획득"</f>
+        <f t="shared" ref="C88:C89" si="14">M88&amp;" 획득"</f>
         <v>가람태자의 검 획득</v>
       </c>
       <c r="D88" s="1">
@@ -6978,6 +7017,104 @@
       </c>
       <c r="O88">
         <v>761</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="14"/>
+        <v>서해장군의 검 획득</v>
+      </c>
+      <c r="D89" s="1">
+        <v>152</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89">
+        <v>46</v>
+      </c>
+      <c r="G89">
+        <v>256000</v>
+      </c>
+      <c r="H89">
+        <v>27</v>
+      </c>
+      <c r="I89">
+        <v>29200</v>
+      </c>
+      <c r="J89">
+        <v>10</v>
+      </c>
+      <c r="K89" s="1">
+        <v>0</v>
+      </c>
+      <c r="L89" t="b">
+        <v>1</v>
+      </c>
+      <c r="M89" t="str">
+        <f>VLOOKUP(D89,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>서해장군의 검</v>
+      </c>
+      <c r="N89">
+        <v>11</v>
+      </c>
+      <c r="O89">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" ref="C90" si="15">M90&amp;" 획득"</f>
+        <v>동해장군의 검 획득</v>
+      </c>
+      <c r="D90" s="1">
+        <v>153</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="F90">
+        <v>46</v>
+      </c>
+      <c r="G90">
+        <v>259000</v>
+      </c>
+      <c r="H90">
+        <v>27</v>
+      </c>
+      <c r="I90">
+        <v>29600</v>
+      </c>
+      <c r="J90">
+        <v>10</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0</v>
+      </c>
+      <c r="L90" t="b">
+        <v>1</v>
+      </c>
+      <c r="M90" t="str">
+        <f>VLOOKUP(D90,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>동해장군의 검</v>
+      </c>
+      <c r="N90">
+        <v>11</v>
+      </c>
+      <c r="O90">
+        <v>763</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Weapon.xlsx
+++ b/Assets/06.Table/Title_Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B866901D-19CB-4491-B9E2-777D4E7FD805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A85CF11-8F4F-4A2A-942E-6EC18BECA07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Weapon" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -630,6 +630,9 @@
   </si>
   <si>
     <t>title88</t>
+  </si>
+  <si>
+    <t>title89</t>
   </si>
 </sst>
 </file>
@@ -2355,7 +2358,7 @@
             <v>weapon146</v>
           </cell>
           <cell r="C148" t="str">
-            <v>싸움왕의 검</v>
+            <v>비무왕의 검</v>
           </cell>
         </row>
         <row r="149">
@@ -2444,6 +2447,28 @@
           </cell>
           <cell r="C156" t="str">
             <v>비무신의 검</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="A157">
+            <v>155</v>
+          </cell>
+          <cell r="B157" t="str">
+            <v>weapon155</v>
+          </cell>
+          <cell r="C157" t="str">
+            <v>용왕의 검</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="A158">
+            <v>156</v>
+          </cell>
+          <cell r="B158" t="str">
+            <v>weapon156</v>
+          </cell>
+          <cell r="C158" t="str">
+            <v>윷가락</v>
           </cell>
         </row>
       </sheetData>
@@ -2752,11 +2777,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O90"/>
+  <dimension ref="A1:O91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G93" sqref="G93"/>
+      <selection pane="bottomLeft" activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7076,7 +7101,7 @@
         <v>168</v>
       </c>
       <c r="C90" t="str">
-        <f t="shared" ref="C90" si="15">M90&amp;" 획득"</f>
+        <f t="shared" ref="C90:C91" si="15">M90&amp;" 획득"</f>
         <v>동해장군의 검 획득</v>
       </c>
       <c r="D90" s="1">
@@ -7115,6 +7140,55 @@
       </c>
       <c r="O90">
         <v>763</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="15"/>
+        <v>용왕의 검 획득</v>
+      </c>
+      <c r="D91" s="1">
+        <v>155</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91">
+        <v>46</v>
+      </c>
+      <c r="G91">
+        <v>262000</v>
+      </c>
+      <c r="H91">
+        <v>27</v>
+      </c>
+      <c r="I91">
+        <v>30000</v>
+      </c>
+      <c r="J91">
+        <v>10</v>
+      </c>
+      <c r="K91" s="1">
+        <v>0</v>
+      </c>
+      <c r="L91" t="b">
+        <v>1</v>
+      </c>
+      <c r="M91" t="str">
+        <f>VLOOKUP(D91,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>용왕의 검</v>
+      </c>
+      <c r="N91">
+        <v>11</v>
+      </c>
+      <c r="O91">
+        <v>764</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Weapon.xlsx
+++ b/Assets/06.Table/Title_Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A85CF11-8F4F-4A2A-942E-6EC18BECA07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE217B8-EBC4-4902-B8A8-45108B8782E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -633,6 +633,12 @@
   </si>
   <si>
     <t>title89</t>
+  </si>
+  <si>
+    <t>title90</t>
+  </si>
+  <si>
+    <t>title91</t>
   </si>
 </sst>
 </file>
@@ -2469,6 +2475,28 @@
           </cell>
           <cell r="C158" t="str">
             <v>윷가락</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="A159">
+            <v>157</v>
+          </cell>
+          <cell r="B159" t="str">
+            <v>weapon157</v>
+          </cell>
+          <cell r="C159" t="str">
+            <v>천세태자의 부채</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="A160">
+            <v>158</v>
+          </cell>
+          <cell r="B160" t="str">
+            <v>weapon158</v>
+          </cell>
+          <cell r="C160" t="str">
+            <v>백의장군의 봉</v>
           </cell>
         </row>
       </sheetData>
@@ -2777,11 +2805,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O91"/>
+  <dimension ref="A1:O93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J91" sqref="J91"/>
+      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7189,6 +7217,104 @@
       </c>
       <c r="O91">
         <v>764</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" ref="C92:C93" si="16">M92&amp;" 획득"</f>
+        <v>천세태자의 부채 획득</v>
+      </c>
+      <c r="D92" s="1">
+        <v>157</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="F92">
+        <v>46</v>
+      </c>
+      <c r="G92">
+        <v>265000</v>
+      </c>
+      <c r="H92">
+        <v>27</v>
+      </c>
+      <c r="I92">
+        <v>30400</v>
+      </c>
+      <c r="J92">
+        <v>10</v>
+      </c>
+      <c r="K92" s="1">
+        <v>0</v>
+      </c>
+      <c r="L92" t="b">
+        <v>1</v>
+      </c>
+      <c r="M92" t="str">
+        <f>VLOOKUP(D92,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>천세태자의 부채</v>
+      </c>
+      <c r="N92">
+        <v>11</v>
+      </c>
+      <c r="O92">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="16"/>
+        <v>백의장군의 봉 획득</v>
+      </c>
+      <c r="D93" s="1">
+        <v>158</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <v>46</v>
+      </c>
+      <c r="G93">
+        <v>268000</v>
+      </c>
+      <c r="H93">
+        <v>27</v>
+      </c>
+      <c r="I93">
+        <v>30800</v>
+      </c>
+      <c r="J93">
+        <v>10</v>
+      </c>
+      <c r="K93" s="1">
+        <v>0</v>
+      </c>
+      <c r="L93" t="b">
+        <v>1</v>
+      </c>
+      <c r="M93" t="str">
+        <f>VLOOKUP(D93,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>백의장군의 봉</v>
+      </c>
+      <c r="N93">
+        <v>11</v>
+      </c>
+      <c r="O93">
+        <v>766</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Weapon.xlsx
+++ b/Assets/06.Table/Title_Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE217B8-EBC4-4902-B8A8-45108B8782E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F56726E-0B1F-4F83-AFA5-069ECA12A16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Weapon" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -639,6 +639,9 @@
   </si>
   <si>
     <t>title91</t>
+  </si>
+  <si>
+    <t>title92</t>
   </si>
 </sst>
 </file>
@@ -2485,7 +2488,7 @@
             <v>weapon157</v>
           </cell>
           <cell r="C159" t="str">
-            <v>천세태자의 부채</v>
+            <v>백의대군의 부채</v>
           </cell>
         </row>
         <row r="160">
@@ -2496,13 +2499,57 @@
             <v>weapon158</v>
           </cell>
           <cell r="C160" t="str">
-            <v>백의장군의 봉</v>
+            <v>천세상제의 봉</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="A161">
+            <v>159</v>
+          </cell>
+          <cell r="B161" t="str">
+            <v>weapon159</v>
+          </cell>
+          <cell r="C161" t="str">
+            <v>천세왕후의 부채</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="A162">
+            <v>160</v>
+          </cell>
+          <cell r="B162" t="str">
+            <v>weapon160</v>
+          </cell>
+          <cell r="C162" t="str">
+            <v>남궁가주의 검</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="A163">
+            <v>161</v>
+          </cell>
+          <cell r="B163" t="str">
+            <v>weapon161</v>
+          </cell>
+          <cell r="C163" t="str">
+            <v>제갈가주의 검</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="A164">
+            <v>162</v>
+          </cell>
+          <cell r="B164" t="str">
+            <v>weapon162</v>
+          </cell>
+          <cell r="C164" t="str">
+            <v>무림의 보검</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2805,11 +2852,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O93"/>
+  <dimension ref="A1:O94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
+      <selection pane="bottomLeft" activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7227,8 +7274,8 @@
         <v>170</v>
       </c>
       <c r="C92" t="str">
-        <f t="shared" ref="C92:C93" si="16">M92&amp;" 획득"</f>
-        <v>천세태자의 부채 획득</v>
+        <f t="shared" ref="C92:C94" si="16">M92&amp;" 획득"</f>
+        <v>백의대군의 부채 획득</v>
       </c>
       <c r="D92" s="1">
         <v>157</v>
@@ -7259,7 +7306,7 @@
       </c>
       <c r="M92" t="str">
         <f>VLOOKUP(D92,[1]Weapon!$A:$C,3,FALSE)</f>
-        <v>천세태자의 부채</v>
+        <v>백의대군의 부채</v>
       </c>
       <c r="N92">
         <v>11</v>
@@ -7277,7 +7324,7 @@
       </c>
       <c r="C93" t="str">
         <f t="shared" si="16"/>
-        <v>백의장군의 봉 획득</v>
+        <v>천세상제의 봉 획득</v>
       </c>
       <c r="D93" s="1">
         <v>158</v>
@@ -7308,13 +7355,62 @@
       </c>
       <c r="M93" t="str">
         <f>VLOOKUP(D93,[1]Weapon!$A:$C,3,FALSE)</f>
-        <v>백의장군의 봉</v>
+        <v>천세상제의 봉</v>
       </c>
       <c r="N93">
         <v>11</v>
       </c>
       <c r="O93">
         <v>766</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="16"/>
+        <v>천세왕후의 부채 획득</v>
+      </c>
+      <c r="D94" s="1">
+        <v>159</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="F94">
+        <v>46</v>
+      </c>
+      <c r="G94">
+        <v>271000</v>
+      </c>
+      <c r="H94">
+        <v>27</v>
+      </c>
+      <c r="I94">
+        <v>31200</v>
+      </c>
+      <c r="J94">
+        <v>10</v>
+      </c>
+      <c r="K94" s="1">
+        <v>0</v>
+      </c>
+      <c r="L94" t="b">
+        <v>1</v>
+      </c>
+      <c r="M94" t="str">
+        <f>VLOOKUP(D94,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>천세왕후의 부채</v>
+      </c>
+      <c r="N94">
+        <v>11</v>
+      </c>
+      <c r="O94">
+        <v>767</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Weapon.xlsx
+++ b/Assets/06.Table/Title_Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F56726E-0B1F-4F83-AFA5-069ECA12A16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD20A29-B26D-43CA-A873-D426481A2F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Weapon" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -642,6 +642,9 @@
   </si>
   <si>
     <t>title92</t>
+  </si>
+  <si>
+    <t>title93</t>
   </si>
 </sst>
 </file>
@@ -2543,22 +2546,44 @@
             <v>weapon162</v>
           </cell>
           <cell r="C164" t="str">
-            <v>무림의 보검</v>
+            <v>온화천왕의 검</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="A165">
+            <v>163</v>
+          </cell>
+          <cell r="B165" t="str">
+            <v>weapon163</v>
+          </cell>
+          <cell r="C165" t="str">
+            <v>사천당문의 검</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="A166">
+            <v>164</v>
+          </cell>
+          <cell r="B166" t="str">
+            <v>weapon164</v>
+          </cell>
+          <cell r="C166" t="str">
+            <v>모용가주의 검</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2596,7 +2621,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2702,7 +2727,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2844,7 +2869,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2852,11 +2877,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O94"/>
+  <dimension ref="A1:O95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C92" sqref="C92"/>
+      <selection pane="bottomLeft" activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7411,6 +7436,55 @@
       </c>
       <c r="O94">
         <v>767</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" ref="C95" si="17">M95&amp;" 획득"</f>
+        <v>온화천왕의 검 획득</v>
+      </c>
+      <c r="D95" s="1">
+        <v>162</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95">
+        <v>46</v>
+      </c>
+      <c r="G95">
+        <v>274000</v>
+      </c>
+      <c r="H95">
+        <v>27</v>
+      </c>
+      <c r="I95">
+        <v>31600</v>
+      </c>
+      <c r="J95">
+        <v>10</v>
+      </c>
+      <c r="K95" s="1">
+        <v>0</v>
+      </c>
+      <c r="L95" t="b">
+        <v>1</v>
+      </c>
+      <c r="M95" t="str">
+        <f>VLOOKUP(D95,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>온화천왕의 검</v>
+      </c>
+      <c r="N95">
+        <v>11</v>
+      </c>
+      <c r="O95">
+        <v>768</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Weapon.xlsx
+++ b/Assets/06.Table/Title_Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD20A29-B26D-43CA-A873-D426481A2F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6BE7E4-9D1E-40B7-A1F9-938E016C43FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15450" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Weapon" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -645,6 +645,9 @@
   </si>
   <si>
     <t>title93</t>
+  </si>
+  <si>
+    <t>title94</t>
   </si>
 </sst>
 </file>
@@ -2569,6 +2572,39 @@
           </cell>
           <cell r="C166" t="str">
             <v>모용가주의 검</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="A167">
+            <v>165</v>
+          </cell>
+          <cell r="B167" t="str">
+            <v>weapon165</v>
+          </cell>
+          <cell r="C167" t="str">
+            <v>광명상제의 검</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="A168">
+            <v>166</v>
+          </cell>
+          <cell r="B168" t="str">
+            <v>weapon166</v>
+          </cell>
+          <cell r="C168" t="str">
+            <v>소림나한의 검</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="A169">
+            <v>167</v>
+          </cell>
+          <cell r="B169" t="str">
+            <v>weapon167</v>
+          </cell>
+          <cell r="C169" t="str">
+            <v>북해빙궁의 검</v>
           </cell>
         </row>
       </sheetData>
@@ -2877,11 +2913,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D95" sqref="D95"/>
+      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7446,7 +7482,7 @@
         <v>173</v>
       </c>
       <c r="C95" t="str">
-        <f t="shared" ref="C95" si="17">M95&amp;" 획득"</f>
+        <f t="shared" ref="C95:C96" si="17">M95&amp;" 획득"</f>
         <v>온화천왕의 검 획득</v>
       </c>
       <c r="D95" s="1">
@@ -7485,6 +7521,55 @@
       </c>
       <c r="O95">
         <v>768</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="17"/>
+        <v>광명상제의 검 획득</v>
+      </c>
+      <c r="D96" s="1">
+        <v>165</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96">
+        <v>46</v>
+      </c>
+      <c r="G96">
+        <v>277000</v>
+      </c>
+      <c r="H96">
+        <v>27</v>
+      </c>
+      <c r="I96">
+        <v>32000</v>
+      </c>
+      <c r="J96">
+        <v>10</v>
+      </c>
+      <c r="K96" s="1">
+        <v>0</v>
+      </c>
+      <c r="L96" t="b">
+        <v>1</v>
+      </c>
+      <c r="M96" t="str">
+        <f>VLOOKUP(D96,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>광명상제의 검</v>
+      </c>
+      <c r="N96">
+        <v>11</v>
+      </c>
+      <c r="O96">
+        <v>769</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Weapon.xlsx
+++ b/Assets/06.Table/Title_Weapon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6BE7E4-9D1E-40B7-A1F9-938E016C43FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63080F1D-D5A8-415C-9678-7D06828CC5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15450" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Weapon" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -648,6 +648,9 @@
   </si>
   <si>
     <t>title94</t>
+  </si>
+  <si>
+    <t>title95</t>
   </si>
 </sst>
 </file>
@@ -2607,10 +2610,54 @@
             <v>북해빙궁의 검</v>
           </cell>
         </row>
+        <row r="170">
+          <cell r="A170">
+            <v>168</v>
+          </cell>
+          <cell r="B170" t="str">
+            <v>weapon168</v>
+          </cell>
+          <cell r="C170" t="str">
+            <v>극락천왕의 부채</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="A171">
+            <v>169</v>
+          </cell>
+          <cell r="B171" t="str">
+            <v>weapon169</v>
+          </cell>
+          <cell r="C171" t="str">
+            <v>종남가주의 검</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="A172">
+            <v>170</v>
+          </cell>
+          <cell r="B172" t="str">
+            <v>weapon170</v>
+          </cell>
+          <cell r="C172" t="str">
+            <v>하북팽가의 검</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="A173">
+            <v>171</v>
+          </cell>
+          <cell r="B173" t="str">
+            <v>weapon171</v>
+          </cell>
+          <cell r="C173" t="str">
+            <v>수월경화 검</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2913,11 +2960,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O96"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7482,7 +7529,7 @@
         <v>173</v>
       </c>
       <c r="C95" t="str">
-        <f t="shared" ref="C95:C96" si="17">M95&amp;" 획득"</f>
+        <f t="shared" ref="C95:C97" si="17">M95&amp;" 획득"</f>
         <v>온화천왕의 검 획득</v>
       </c>
       <c r="D95" s="1">
@@ -7570,6 +7617,55 @@
       </c>
       <c r="O96">
         <v>769</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="17"/>
+        <v>극락천왕의 부채 획득</v>
+      </c>
+      <c r="D97" s="1">
+        <v>168</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <v>46</v>
+      </c>
+      <c r="G97">
+        <v>280000</v>
+      </c>
+      <c r="H97">
+        <v>27</v>
+      </c>
+      <c r="I97">
+        <v>32400</v>
+      </c>
+      <c r="J97">
+        <v>10</v>
+      </c>
+      <c r="K97" s="1">
+        <v>0</v>
+      </c>
+      <c r="L97" t="b">
+        <v>1</v>
+      </c>
+      <c r="M97" t="str">
+        <f>VLOOKUP(D97,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>극락천왕의 부채</v>
+      </c>
+      <c r="N97">
+        <v>11</v>
+      </c>
+      <c r="O97">
+        <v>770</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Weapon.xlsx
+++ b/Assets/06.Table/Title_Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63080F1D-D5A8-415C-9678-7D06828CC5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D85BC0-B1B1-4DC3-AA7B-9374142F12DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Weapon" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -651,6 +651,9 @@
   </si>
   <si>
     <t>title95</t>
+  </si>
+  <si>
+    <t>title96</t>
   </si>
 </sst>
 </file>
@@ -2654,10 +2657,87 @@
             <v>수월경화 검</v>
           </cell>
         </row>
+        <row r="174">
+          <cell r="A174">
+            <v>172</v>
+          </cell>
+          <cell r="B174" t="str">
+            <v>weapon172</v>
+          </cell>
+          <cell r="C174" t="str">
+            <v>무당가주의 검</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="A175">
+            <v>173</v>
+          </cell>
+          <cell r="B175" t="str">
+            <v>weapon173</v>
+          </cell>
+          <cell r="C175" t="str">
+            <v>설산가주의 검</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="A176">
+            <v>174</v>
+          </cell>
+          <cell r="B176" t="str">
+            <v>weapon174</v>
+          </cell>
+          <cell r="C176" t="str">
+            <v>용태자의 검</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="A177">
+            <v>175</v>
+          </cell>
+          <cell r="B177" t="str">
+            <v>weapon175</v>
+          </cell>
+          <cell r="C177" t="str">
+            <v>명월도령의 부채</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="A178">
+            <v>176</v>
+          </cell>
+          <cell r="B178" t="str">
+            <v>weapon176</v>
+          </cell>
+          <cell r="C178" t="str">
+            <v>적월살수의 검</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="A179">
+            <v>177</v>
+          </cell>
+          <cell r="B179" t="str">
+            <v>weapon177</v>
+          </cell>
+          <cell r="C179" t="str">
+            <v>혈마의 검</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="A180">
+            <v>178</v>
+          </cell>
+          <cell r="B180" t="str">
+            <v>weapon178</v>
+          </cell>
+          <cell r="C180" t="str">
+            <v>지옥 문지기의 검</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2960,11 +3040,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O97"/>
+  <dimension ref="A1:O98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G100" sqref="G100"/>
+      <selection pane="bottomLeft" activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7529,7 +7609,7 @@
         <v>173</v>
       </c>
       <c r="C95" t="str">
-        <f t="shared" ref="C95:C97" si="17">M95&amp;" 획득"</f>
+        <f t="shared" ref="C95:C98" si="17">M95&amp;" 획득"</f>
         <v>온화천왕의 검 획득</v>
       </c>
       <c r="D95" s="1">
@@ -7666,6 +7746,55 @@
       </c>
       <c r="O97">
         <v>770</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="17"/>
+        <v>지옥 문지기의 검 획득</v>
+      </c>
+      <c r="D98" s="1">
+        <v>178</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="F98">
+        <v>46</v>
+      </c>
+      <c r="G98">
+        <v>283000</v>
+      </c>
+      <c r="H98">
+        <v>27</v>
+      </c>
+      <c r="I98">
+        <v>32800</v>
+      </c>
+      <c r="J98">
+        <v>10</v>
+      </c>
+      <c r="K98" s="1">
+        <v>0</v>
+      </c>
+      <c r="L98" t="b">
+        <v>1</v>
+      </c>
+      <c r="M98" t="str">
+        <f>VLOOKUP(D98,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>지옥 문지기의 검</v>
+      </c>
+      <c r="N98">
+        <v>11</v>
+      </c>
+      <c r="O98">
+        <v>771</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Weapon.xlsx
+++ b/Assets/06.Table/Title_Weapon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D85BC0-B1B1-4DC3-AA7B-9374142F12DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967FE5B5-F299-4CA6-A28A-6DDC0093ACAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Weapon" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -654,6 +654,9 @@
   </si>
   <si>
     <t>title96</t>
+  </si>
+  <si>
+    <t>title97</t>
   </si>
 </sst>
 </file>
@@ -2732,6 +2735,50 @@
           </cell>
           <cell r="C180" t="str">
             <v>지옥 문지기의 검</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="A181">
+            <v>179</v>
+          </cell>
+          <cell r="B181" t="str">
+            <v>weapon179</v>
+          </cell>
+          <cell r="C181" t="str">
+            <v>진광대왕의 부채</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="A182">
+            <v>180</v>
+          </cell>
+          <cell r="B182" t="str">
+            <v>weapon180</v>
+          </cell>
+          <cell r="C182" t="str">
+            <v>적풍검객의 검</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="A183">
+            <v>181</v>
+          </cell>
+          <cell r="B183" t="str">
+            <v>weapon181</v>
+          </cell>
+          <cell r="C183" t="str">
+            <v>청풍검객의 검</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="A184">
+            <v>182</v>
+          </cell>
+          <cell r="B184" t="str">
+            <v>weapon182</v>
+          </cell>
+          <cell r="C184" t="str">
+            <v>오조사의 부채</v>
           </cell>
         </row>
       </sheetData>
@@ -3040,11 +3087,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O98"/>
+  <dimension ref="A1:O99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H102" sqref="H102"/>
+      <selection pane="bottomLeft" activeCell="K99" sqref="K99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7795,6 +7842,55 @@
       </c>
       <c r="O98">
         <v>771</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" ref="C99" si="18">M99&amp;" 획득"</f>
+        <v>진광대왕의 부채 획득</v>
+      </c>
+      <c r="D99" s="1">
+        <v>179</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="F99">
+        <v>46</v>
+      </c>
+      <c r="G99">
+        <v>286000</v>
+      </c>
+      <c r="H99">
+        <v>27</v>
+      </c>
+      <c r="I99">
+        <v>33200</v>
+      </c>
+      <c r="J99">
+        <v>10</v>
+      </c>
+      <c r="K99" s="1">
+        <v>0</v>
+      </c>
+      <c r="L99" t="b">
+        <v>1</v>
+      </c>
+      <c r="M99" t="str">
+        <f>VLOOKUP(D99,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>진광대왕의 부채</v>
+      </c>
+      <c r="N99">
+        <v>11</v>
+      </c>
+      <c r="O99">
+        <v>772</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Weapon.xlsx
+++ b/Assets/06.Table/Title_Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967FE5B5-F299-4CA6-A28A-6DDC0093ACAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CF01A4-C6F3-4691-8702-51EF6FA5D3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Weapon" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -657,6 +657,9 @@
   </si>
   <si>
     <t>title97</t>
+  </si>
+  <si>
+    <t>title98</t>
   </si>
 </sst>
 </file>
@@ -2779,6 +2782,50 @@
           </cell>
           <cell r="C184" t="str">
             <v>오조사의 부채</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="A185">
+            <v>183</v>
+          </cell>
+          <cell r="B185" t="str">
+            <v>weapon183</v>
+          </cell>
+          <cell r="C185" t="str">
+            <v>태산대왕의 검</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="A186">
+            <v>184</v>
+          </cell>
+          <cell r="B186" t="str">
+            <v>weapon184</v>
+          </cell>
+          <cell r="C186" t="str">
+            <v>적사신의 검</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="A187">
+            <v>185</v>
+          </cell>
+          <cell r="B187" t="str">
+            <v>weapon185</v>
+          </cell>
+          <cell r="C187" t="str">
+            <v>청사신의 검</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="A188">
+            <v>186</v>
+          </cell>
+          <cell r="B188" t="str">
+            <v>weapon186</v>
+          </cell>
+          <cell r="C188" t="str">
+            <v>영술사의 부채</v>
           </cell>
         </row>
       </sheetData>
@@ -3087,11 +3134,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O99"/>
+  <dimension ref="A1:O100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K99" sqref="K99"/>
+      <selection pane="bottomLeft" activeCell="K100" sqref="K100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7852,7 +7899,7 @@
         <v>177</v>
       </c>
       <c r="C99" t="str">
-        <f t="shared" ref="C99" si="18">M99&amp;" 획득"</f>
+        <f t="shared" ref="C99:C100" si="18">M99&amp;" 획득"</f>
         <v>진광대왕의 부채 획득</v>
       </c>
       <c r="D99" s="1">
@@ -7891,6 +7938,55 @@
       </c>
       <c r="O99">
         <v>772</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="18"/>
+        <v>태산대왕의 검 획득</v>
+      </c>
+      <c r="D100" s="1">
+        <v>183</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+      <c r="F100">
+        <v>46</v>
+      </c>
+      <c r="G100">
+        <v>289000</v>
+      </c>
+      <c r="H100">
+        <v>27</v>
+      </c>
+      <c r="I100">
+        <v>33600</v>
+      </c>
+      <c r="J100">
+        <v>10</v>
+      </c>
+      <c r="K100" s="1">
+        <v>0</v>
+      </c>
+      <c r="L100" t="b">
+        <v>1</v>
+      </c>
+      <c r="M100" t="str">
+        <f>VLOOKUP(D100,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>태산대왕의 검</v>
+      </c>
+      <c r="N100">
+        <v>11</v>
+      </c>
+      <c r="O100">
+        <v>773</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Weapon.xlsx
+++ b/Assets/06.Table/Title_Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CF01A4-C6F3-4691-8702-51EF6FA5D3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D5C1D6-828C-4C89-92A2-AA7EFB99F629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -660,6 +660,9 @@
   </si>
   <si>
     <t>title98</t>
+  </si>
+  <si>
+    <t>title99</t>
   </si>
 </sst>
 </file>
@@ -2826,6 +2829,50 @@
           </cell>
           <cell r="C188" t="str">
             <v>영술사의 부채</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="A189">
+            <v>187</v>
+          </cell>
+          <cell r="B189" t="str">
+            <v>weapon187</v>
+          </cell>
+          <cell r="C189" t="str">
+            <v>초광대왕의 검</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="A190">
+            <v>188</v>
+          </cell>
+          <cell r="B190" t="str">
+            <v>weapon188</v>
+          </cell>
+          <cell r="C190" t="str">
+            <v>청사화의 부채</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="A191">
+            <v>189</v>
+          </cell>
+          <cell r="B191" t="str">
+            <v>weapon189</v>
+          </cell>
+          <cell r="C191" t="str">
+            <v>백사화의 부채</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="A192">
+            <v>190</v>
+          </cell>
+          <cell r="B192" t="str">
+            <v>weapon190</v>
+          </cell>
+          <cell r="C192" t="str">
+            <v>수선화 검</v>
           </cell>
         </row>
       </sheetData>
@@ -3134,11 +3181,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O100"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K100" sqref="K100"/>
+      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7899,7 +7946,7 @@
         <v>177</v>
       </c>
       <c r="C99" t="str">
-        <f t="shared" ref="C99:C100" si="18">M99&amp;" 획득"</f>
+        <f t="shared" ref="C99:C101" si="18">M99&amp;" 획득"</f>
         <v>진광대왕의 부채 획득</v>
       </c>
       <c r="D99" s="1">
@@ -7987,6 +8034,55 @@
       </c>
       <c r="O100">
         <v>773</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="18"/>
+        <v>초광대왕의 검 획득</v>
+      </c>
+      <c r="D101" s="1">
+        <v>187</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="F101">
+        <v>46</v>
+      </c>
+      <c r="G101">
+        <v>292000</v>
+      </c>
+      <c r="H101">
+        <v>27</v>
+      </c>
+      <c r="I101">
+        <v>34000</v>
+      </c>
+      <c r="J101">
+        <v>10</v>
+      </c>
+      <c r="K101" s="1">
+        <v>0</v>
+      </c>
+      <c r="L101" t="b">
+        <v>1</v>
+      </c>
+      <c r="M101" t="str">
+        <f>VLOOKUP(D101,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>초광대왕의 검</v>
+      </c>
+      <c r="N101">
+        <v>11</v>
+      </c>
+      <c r="O101">
+        <v>774</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Weapon.xlsx
+++ b/Assets/06.Table/Title_Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D5C1D6-828C-4C89-92A2-AA7EFB99F629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EA3D99-D5FB-4085-B208-990FE7738501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Weapon" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -663,6 +663,9 @@
   </si>
   <si>
     <t>title99</t>
+  </si>
+  <si>
+    <t>title100</t>
   </si>
 </sst>
 </file>
@@ -2872,7 +2875,51 @@
             <v>weapon190</v>
           </cell>
           <cell r="C192" t="str">
-            <v>수선화 검</v>
+            <v>청령화 검</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="A193">
+            <v>191</v>
+          </cell>
+          <cell r="B193" t="str">
+            <v>weapon191</v>
+          </cell>
+          <cell r="C193" t="str">
+            <v>전륜대왕의 검</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="A194">
+            <v>192</v>
+          </cell>
+          <cell r="B194" t="str">
+            <v>weapon192</v>
+          </cell>
+          <cell r="C194" t="str">
+            <v>적열술사의 검</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="A195">
+            <v>193</v>
+          </cell>
+          <cell r="B195" t="str">
+            <v>weapon193</v>
+          </cell>
+          <cell r="C195" t="str">
+            <v>자열술사의 검</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="A196">
+            <v>194</v>
+          </cell>
+          <cell r="B196" t="str">
+            <v>weapon194</v>
+          </cell>
+          <cell r="C196" t="str">
+            <v>호접검</v>
           </cell>
         </row>
       </sheetData>
@@ -3181,11 +3228,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7946,7 +7993,7 @@
         <v>177</v>
       </c>
       <c r="C99" t="str">
-        <f t="shared" ref="C99:C101" si="18">M99&amp;" 획득"</f>
+        <f t="shared" ref="C99:C102" si="18">M99&amp;" 획득"</f>
         <v>진광대왕의 부채 획득</v>
       </c>
       <c r="D99" s="1">
@@ -8083,6 +8130,55 @@
       </c>
       <c r="O101">
         <v>774</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="18"/>
+        <v>전륜대왕의 검 획득</v>
+      </c>
+      <c r="D102" s="1">
+        <v>191</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102">
+        <v>46</v>
+      </c>
+      <c r="G102">
+        <v>295000</v>
+      </c>
+      <c r="H102">
+        <v>27</v>
+      </c>
+      <c r="I102">
+        <v>34400</v>
+      </c>
+      <c r="J102">
+        <v>10</v>
+      </c>
+      <c r="K102" s="1">
+        <v>0</v>
+      </c>
+      <c r="L102" t="b">
+        <v>1</v>
+      </c>
+      <c r="M102" t="str">
+        <f>VLOOKUP(D102,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>전륜대왕의 검</v>
+      </c>
+      <c r="N102">
+        <v>11</v>
+      </c>
+      <c r="O102">
+        <v>775</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Weapon.xlsx
+++ b/Assets/06.Table/Title_Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EA3D99-D5FB-4085-B208-990FE7738501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A382B1-80CC-454E-9D41-6A5E815DB007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -666,6 +666,9 @@
   </si>
   <si>
     <t>title100</t>
+  </si>
+  <si>
+    <t>title101</t>
   </si>
 </sst>
 </file>
@@ -2920,6 +2923,28 @@
           </cell>
           <cell r="C196" t="str">
             <v>호접검</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="A197">
+            <v>195</v>
+          </cell>
+          <cell r="B197" t="str">
+            <v>weapon195</v>
+          </cell>
+          <cell r="C197" t="str">
+            <v>백련화신의 검</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="A198">
+            <v>196</v>
+          </cell>
+          <cell r="B198" t="str">
+            <v>weapon196</v>
+          </cell>
+          <cell r="C198" t="str">
+            <v>3주년 전야제 이벤트검</v>
           </cell>
         </row>
       </sheetData>
@@ -3228,11 +3253,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O102"/>
+  <dimension ref="A1:O103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G102" sqref="G102"/>
+      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8179,6 +8204,55 @@
       </c>
       <c r="O102">
         <v>775</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" ref="C103" si="19">M103&amp;" 획득"</f>
+        <v>백련화신의 검 획득</v>
+      </c>
+      <c r="D103" s="1">
+        <v>195</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+      <c r="F103">
+        <v>46</v>
+      </c>
+      <c r="G103">
+        <v>298000</v>
+      </c>
+      <c r="H103">
+        <v>27</v>
+      </c>
+      <c r="I103">
+        <v>34800</v>
+      </c>
+      <c r="J103">
+        <v>10</v>
+      </c>
+      <c r="K103" s="1">
+        <v>0</v>
+      </c>
+      <c r="L103" t="b">
+        <v>1</v>
+      </c>
+      <c r="M103" t="str">
+        <f>VLOOKUP(D103,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>백련화신의 검</v>
+      </c>
+      <c r="N103">
+        <v>11</v>
+      </c>
+      <c r="O103">
+        <v>776</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Weapon.xlsx
+++ b/Assets/06.Table/Title_Weapon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A382B1-80CC-454E-9D41-6A5E815DB007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43C9678-0F9C-4DFF-8A25-560945FB7D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -669,6 +669,9 @@
   </si>
   <si>
     <t>title101</t>
+  </si>
+  <si>
+    <t>title102</t>
   </si>
 </sst>
 </file>
@@ -2945,6 +2948,17 @@
           </cell>
           <cell r="C198" t="str">
             <v>3주년 전야제 이벤트검</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="A199">
+            <v>197</v>
+          </cell>
+          <cell r="B199" t="str">
+            <v>weapon197</v>
+          </cell>
+          <cell r="C199" t="str">
+            <v>흑오화신의 검</v>
           </cell>
         </row>
       </sheetData>
@@ -3253,11 +3267,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O103"/>
+  <dimension ref="A1:O104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
+      <selection pane="bottomLeft" activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8214,7 +8228,7 @@
         <v>181</v>
       </c>
       <c r="C103" t="str">
-        <f t="shared" ref="C103" si="19">M103&amp;" 획득"</f>
+        <f t="shared" ref="C103:C104" si="19">M103&amp;" 획득"</f>
         <v>백련화신의 검 획득</v>
       </c>
       <c r="D103" s="1">
@@ -8253,6 +8267,55 @@
       </c>
       <c r="O103">
         <v>776</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="19"/>
+        <v>흑오화신의 검 획득</v>
+      </c>
+      <c r="D104" s="1">
+        <v>197</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="F104">
+        <v>46</v>
+      </c>
+      <c r="G104">
+        <v>301000</v>
+      </c>
+      <c r="H104">
+        <v>27</v>
+      </c>
+      <c r="I104">
+        <v>35200</v>
+      </c>
+      <c r="J104">
+        <v>10</v>
+      </c>
+      <c r="K104" s="1">
+        <v>0</v>
+      </c>
+      <c r="L104" t="b">
+        <v>1</v>
+      </c>
+      <c r="M104" t="str">
+        <f>VLOOKUP(D104,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>흑오화신의 검</v>
+      </c>
+      <c r="N104">
+        <v>11</v>
+      </c>
+      <c r="O104">
+        <v>777</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Weapon.xlsx
+++ b/Assets/06.Table/Title_Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43C9678-0F9C-4DFF-8A25-560945FB7D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEB21F6-61EA-47C8-819E-B3A75B593515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Weapon" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -672,6 +672,9 @@
   </si>
   <si>
     <t>title102</t>
+  </si>
+  <si>
+    <t>title103</t>
   </si>
 </sst>
 </file>
@@ -2959,6 +2962,17 @@
           </cell>
           <cell r="C199" t="str">
             <v>흑오화신의 검</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="A200">
+            <v>198</v>
+          </cell>
+          <cell r="B200" t="str">
+            <v>weapon198</v>
+          </cell>
+          <cell r="C200" t="str">
+            <v>자령화신의 검</v>
           </cell>
         </row>
       </sheetData>
@@ -3267,11 +3281,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O104"/>
+  <dimension ref="A1:O105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D104" sqref="D104"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8228,7 +8242,7 @@
         <v>181</v>
       </c>
       <c r="C103" t="str">
-        <f t="shared" ref="C103:C104" si="19">M103&amp;" 획득"</f>
+        <f t="shared" ref="C103:C105" si="19">M103&amp;" 획득"</f>
         <v>백련화신의 검 획득</v>
       </c>
       <c r="D103" s="1">
@@ -8316,6 +8330,55 @@
       </c>
       <c r="O104">
         <v>777</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="19"/>
+        <v>자령화신의 검 획득</v>
+      </c>
+      <c r="D105" s="1">
+        <v>198</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105">
+        <v>46</v>
+      </c>
+      <c r="G105">
+        <v>304000</v>
+      </c>
+      <c r="H105">
+        <v>27</v>
+      </c>
+      <c r="I105">
+        <v>35600</v>
+      </c>
+      <c r="J105">
+        <v>10</v>
+      </c>
+      <c r="K105" s="1">
+        <v>0</v>
+      </c>
+      <c r="L105" t="b">
+        <v>1</v>
+      </c>
+      <c r="M105" t="str">
+        <f>VLOOKUP(D105,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>자령화신의 검</v>
+      </c>
+      <c r="N105">
+        <v>11</v>
+      </c>
+      <c r="O105">
+        <v>778</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Weapon.xlsx
+++ b/Assets/06.Table/Title_Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEB21F6-61EA-47C8-819E-B3A75B593515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13BE6A2-A44A-4EA7-979A-F35DB2FFC49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Weapon" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -675,6 +675,9 @@
   </si>
   <si>
     <t>title103</t>
+  </si>
+  <si>
+    <t>title104</t>
   </si>
 </sst>
 </file>
@@ -2975,10 +2978,21 @@
             <v>자령화신의 검</v>
           </cell>
         </row>
+        <row r="201">
+          <cell r="A201">
+            <v>199</v>
+          </cell>
+          <cell r="B201" t="str">
+            <v>weapon199</v>
+          </cell>
+          <cell r="C201" t="str">
+            <v>백열화신의 검</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3281,11 +3295,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O105"/>
+  <dimension ref="A1:O106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
+      <selection pane="bottomLeft" activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8379,6 +8393,55 @@
       </c>
       <c r="O105">
         <v>778</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" ref="C106" si="20">M106&amp;" 획득"</f>
+        <v>백열화신의 검 획득</v>
+      </c>
+      <c r="D106" s="1">
+        <v>199</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="F106">
+        <v>46</v>
+      </c>
+      <c r="G106">
+        <v>307000</v>
+      </c>
+      <c r="H106">
+        <v>27</v>
+      </c>
+      <c r="I106">
+        <v>36000</v>
+      </c>
+      <c r="J106">
+        <v>10</v>
+      </c>
+      <c r="K106" s="1">
+        <v>0</v>
+      </c>
+      <c r="L106" t="b">
+        <v>1</v>
+      </c>
+      <c r="M106" t="str">
+        <f>VLOOKUP(D106,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>백열화신의 검</v>
+      </c>
+      <c r="N106">
+        <v>11</v>
+      </c>
+      <c r="O106">
+        <v>779</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Weapon.xlsx
+++ b/Assets/06.Table/Title_Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13BE6A2-A44A-4EA7-979A-F35DB2FFC49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863419F4-A0A8-4A90-B4FC-9DDFA21EC6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Weapon" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -678,6 +678,10 @@
   </si>
   <si>
     <t>title104</t>
+  </si>
+  <si>
+    <t>title105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2987,6 +2991,17 @@
           </cell>
           <cell r="C201" t="str">
             <v>백열화신의 검</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="A202">
+            <v>200</v>
+          </cell>
+          <cell r="B202" t="str">
+            <v>weapon200</v>
+          </cell>
+          <cell r="C202" t="str">
+            <v>흑련화신의 검</v>
           </cell>
         </row>
       </sheetData>
@@ -3295,11 +3310,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O106"/>
+  <dimension ref="A1:O107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F112" sqref="F112"/>
+      <selection pane="bottomLeft" activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8442,6 +8457,55 @@
       </c>
       <c r="O106">
         <v>779</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" ref="C107" si="21">M107&amp;" 획득"</f>
+        <v>흑련화신의 검 획득</v>
+      </c>
+      <c r="D107" s="1">
+        <v>200</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107">
+        <v>46</v>
+      </c>
+      <c r="G107">
+        <v>310000</v>
+      </c>
+      <c r="H107">
+        <v>27</v>
+      </c>
+      <c r="I107">
+        <v>36400</v>
+      </c>
+      <c r="J107">
+        <v>10</v>
+      </c>
+      <c r="K107" s="1">
+        <v>0</v>
+      </c>
+      <c r="L107" t="b">
+        <v>1</v>
+      </c>
+      <c r="M107" t="str">
+        <f>VLOOKUP(D107,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>흑련화신의 검</v>
+      </c>
+      <c r="N107">
+        <v>11</v>
+      </c>
+      <c r="O107">
+        <v>780</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Weapon.xlsx
+++ b/Assets/06.Table/Title_Weapon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863419F4-A0A8-4A90-B4FC-9DDFA21EC6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EB196D-7B15-4CDD-82CB-139B75271573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Weapon" sheetId="1" r:id="rId1"/>
@@ -3001,13 +3001,13 @@
             <v>weapon200</v>
           </cell>
           <cell r="C202" t="str">
-            <v>흑련화신의 검</v>
+            <v>흑열화신의 검</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3314,7 +3314,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F93" sqref="F93"/>
+      <selection pane="bottomLeft" activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8468,7 +8468,7 @@
       </c>
       <c r="C107" t="str">
         <f t="shared" ref="C107" si="21">M107&amp;" 획득"</f>
-        <v>흑련화신의 검 획득</v>
+        <v>흑열화신의 검 획득</v>
       </c>
       <c r="D107" s="1">
         <v>200</v>
@@ -8499,7 +8499,7 @@
       </c>
       <c r="M107" t="str">
         <f>VLOOKUP(D107,[1]Weapon!$A:$C,3,FALSE)</f>
-        <v>흑련화신의 검</v>
+        <v>흑열화신의 검</v>
       </c>
       <c r="N107">
         <v>11</v>
